--- a/Naukri_REFramework/Result/NaukriResult.xlsx
+++ b/Naukri_REFramework/Result/NaukriResult.xlsx
@@ -1,181 +1,268 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sundarsi\source\RPA\UiPath\github\Naukri_REFramework\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38697A32-39BE-45C4-8D17-4AB444FF24E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82030CAF-2DF0-485D-945C-EB60E8957052}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="NaukriResult" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16F49BD-D2E2-4FB1-BAE1-43A630B131F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="0" activeTab="0" xr2:uid="{34FFC018-A718-47F3-93F4-234D8735A757}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="NaukriResult" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
-  <si>
-    <t>CANDIDATE_NAME</t>
-  </si>
-  <si>
-    <t>EXPERIENCE</t>
-  </si>
-  <si>
-    <t>POSITION</t>
-  </si>
-  <si>
-    <t>ORGANIZATION</t>
-  </si>
-  <si>
-    <t>SALARY</t>
-  </si>
-  <si>
-    <t>CURRENT_LOCATION</t>
-  </si>
-  <si>
-    <t>PREF_LOCATION</t>
-  </si>
-  <si>
-    <t>KEY_SKILLS</t>
-  </si>
-  <si>
-    <t>Yashasri Munuganti</t>
-  </si>
-  <si>
-    <t>4yr 0m</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>Tata Consultancy Services</t>
-  </si>
-  <si>
-    <t>7.20 Lacs</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>Anywhere in Northern India, Anywhere in South India, Bangalore</t>
-  </si>
-  <si>
-    <t>Key Skillsasp.net, c#.net, ado.net, sql server, javascript, html, css, entity framework, asp.net mvc, mvc, oops, jquery, mvc framework, mvc5, web api, .net, .net core, mvc 5, mvc 4, agile methodology, agile, ASP.NET Developer, Dot Net Developer, Asp.Net Mvc Developer, LINQ, C#.NET, ASP NET, ASP.NET MVC 6.0, .net</t>
-  </si>
-  <si>
-    <t>Mahesh S Guttedar</t>
-  </si>
-  <si>
-    <t>4yr 7m</t>
-  </si>
-  <si>
-    <t>Cenduit</t>
-  </si>
-  <si>
-    <t>6.70 Lacs</t>
-  </si>
-  <si>
-    <t>Hyderabad, Bangalore, Germany</t>
-  </si>
-  <si>
-    <t>Key Skillsms sql server, c #, vb.net, asp.net or dot net, wcf, sql, jquery, html, javascript, plsql, angularjs, restfull api, web api, CSS, Bootstrap, CSS3, TFS, SVN, Tortoise SVN, Scrum, JIRA, GitHub, Entity Framework, MVVM, LINQ, Microsoft Azure, Agile Methodology, MVC FRAMEWORK, Restful Web API| RESTFULL SERVICE, Angular 6, C#, ADO.NET</t>
-  </si>
-  <si>
-    <t>C:\Users\sundarsi\source\RPA\UiPath\github\Naukri_REFramework\Result\2019-08-28\MaheshSGuttedar4yr7m_2</t>
-  </si>
-  <si>
-    <t>PROFILE_PATH</t>
-  </si>
-  <si>
-    <t>C:\Users\sundarsi\source\RPA\UiPath\github\Naukri_REFramework\Result\2019-08-28\YashasriMunuganti4yr0m_1.docx</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <x:si>
+    <x:t>CANDIDATE_NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EXPERIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ORGANIZATION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SALARY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CURRENT_LOCATION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PREF_LOCATION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KEY_SKILLS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POSITION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROFILE_PATH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yashasri Munuganti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4yr 0m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tata Consultancy Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.20 Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bangalore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anywhere in Northern India, Anywhere in South India, Bangalore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Key Skillsasp.net, c#.net, ado.net, sql server, javascript, html, css, entity framework, asp.net mvc, mvc, oops, jquery, mvc framework, mvc5, web api, .net, .net core, mvc 5, mvc 4, agile methodology, agile, ASP.NET Developer, Dot Net Developer, Asp.Net Mvc Developer, LINQ, C#.NET, ASP NET, ASP.NET MVC 6.0, .net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\\corp-isc-03\CAI India RPA Recruitment Data\NaukriResult_FullStack.NetDeveloper\2019-08-30\YashasriMunuganti4yr0m_1.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Muralidhar Vennapu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4yr 4m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.0 Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hyderabad, Bangalore, Visakhapatnam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Key SkillsASP.Net MVC, C#.Net, ADO.Net, ASP.Net, SQL Server, jQuery, Javascript, Web API, WCF, Web Services, LINQ, Angularjs, .net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\\corp-isc-03\CAI India RPA Recruitment Data\NaukriResult_FullStack.NetDeveloper\2019-08-30\MuralidharVennapu4yr4m_2.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahesh S Guttedar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4yr 7m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cenduit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.70 Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hyderabad, Bangalore, Germany</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Key Skillsms sql server, c #, vb.net, asp.net or dot net, wcf, sql, jquery, html, javascript, plsql, angularjs, restfull api, web api, CSS, Bootstrap, CSS3, TFS, SVN, Tortoise SVN, Scrum, JIRA, GitHub, Entity Framework, MVVM, LINQ, Microsoft Azure, Agile Methodology, MVC FRAMEWORK, Restful Web API| RESTFULL SERVICE, Angular 6, C#, ADO.NET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\\corp-isc-03\CAI India RPA Recruitment Data\NaukriResult_FullStack.NetDeveloper\2019-08-30\MaheshSGuttedar4yr7m_3.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manohar S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6yr 0m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embytes Solutions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.0 Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Key Skillsasp.net, c#.net, ado.net, asp.net mvc, sql server, javascript, html, css, mysql, web development, crystal report, ssrs, tfs, svn, web api, c#, .net, sql, Application Development, Maintenance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\\corp-isc-03\CAI India RPA Recruitment Data\NaukriResult_FullStack.NetDeveloper\2019-08-30\ManoharS6yr0m_4.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Swathi Vadrevu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5yr 0m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DXC Technology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Key SkillsSSIS, entity framework, linq, Angular 2, .NET Framework, C#, ASP.Net, MVC, SQL Server, Javascript, HTML, CSS, JQuery, Oracle, Classic ASP, .net, ASP.NET, ASP.Net MVC, Source Control Tool: Subversion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\\corp-isc-03\CAI India RPA Recruitment Data\NaukriResult_FullStack.NetDeveloper\2019-08-30\SwathiVadrevu5yr0m_5.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vasantha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4yr 1m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Capgemini Consulting pvt ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.60 Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bangalore, Hyderabad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Key Skillsasp.net mvc, c#, entity framework, linq, sql server, ajax, jquery, microsoft azure, Azure DevOps, C#, EntityFramework, WEBAPI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\\corp-isc-03\CAI India RPA Recruitment Data\NaukriResult_FullStack.NetDeveloper\2019-08-30\vasantha4yr1m_7.docx</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="3" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="10"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="5">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="2">
+    <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,126 +561,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C3BCBF-9B9B-42AD-A041-18B9B1812B92}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{587ACC58-8599-4113-9998-DB6315032FA7}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:I7"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="I7" sqref="I7 I7:I7"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:cols>
+    <x:col min="1" max="7" width="9.179688" style="3" customWidth="1"/>
+    <x:col min="8" max="8" width="22.089844" style="3" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <x:c r="A1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <x:c r="A2" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D2" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E2" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F2" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G2" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I2" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <x:c r="A3" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D3" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E3" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F3" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G3" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I3" s="4" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <x:c r="A4" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D4" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E4" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F4" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G4" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I4" s="4" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <x:c r="A5" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I5" s="4" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <x:c r="A6" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E6" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F6" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G6" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I6" s="4" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <x:c r="A7" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F7" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I7" s="4" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="I2" r:id="rId13"/>
+    <x:hyperlink ref="I3" r:id="rId14"/>
+    <x:hyperlink ref="I6" r:id="rId15"/>
+    <x:hyperlink ref="I4" r:id="rId16"/>
+    <x:hyperlink ref="I5" r:id="rId17"/>
+    <x:hyperlink ref="I7" r:id="rId18"/>
+  </x:hyperlinks>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>